--- a/app/Data/Canned Goods.xlsx
+++ b/app/Data/Canned Goods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Lino\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C54B11-968E-4879-B17F-4544A87790BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7490F364-E1AD-4208-A213-29B4E34B2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{2034D22F-82CE-400D-A717-4AFA244A91C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t xml:space="preserve">SKU NUMBER </t>
   </si>
@@ -119,18 +119,12 @@
     <t>2.5kg</t>
   </si>
   <si>
-    <t xml:space="preserve">Cateres Choice Spiced Pizza  Sauce </t>
-  </si>
-  <si>
     <t>6x3kg</t>
   </si>
   <si>
     <t>3kg</t>
   </si>
   <si>
-    <t xml:space="preserve">Cateres Choice Plain Pizza Sauce </t>
-  </si>
-  <si>
     <t>Cateres Choice Plum Tomatoes PEELED</t>
   </si>
   <si>
@@ -158,18 +152,6 @@
     <t>BATCHELORS</t>
   </si>
   <si>
-    <t xml:space="preserve">Kyknos Tomato Paste  </t>
-  </si>
-  <si>
-    <t>KYKNOS</t>
-  </si>
-  <si>
-    <t>12x860g</t>
-  </si>
-  <si>
-    <t>860g</t>
-  </si>
-  <si>
     <t xml:space="preserve">Butter Beans In Water  </t>
   </si>
   <si>
@@ -251,9 +233,6 @@
     <t>FRUIT &amp; VEG</t>
   </si>
   <si>
-    <t>SAUCES &amp; PASTES</t>
-  </si>
-  <si>
     <t>MEATS &amp; FISH</t>
   </si>
   <si>
@@ -279,6 +258,39 @@
   </si>
   <si>
     <t>12x400g</t>
+  </si>
+  <si>
+    <t>ANCHOVY FILLETS IN OIL CATERING</t>
+  </si>
+  <si>
+    <t>12x368g</t>
+  </si>
+  <si>
+    <t>368g</t>
+  </si>
+  <si>
+    <t>ANCHOVY CATERING FILLETS IN OIL CAT</t>
+  </si>
+  <si>
+    <t>24x368g</t>
+  </si>
+  <si>
+    <t>COOKS &amp; CO</t>
+  </si>
+  <si>
+    <t>SALMON PINK WILD CANNED</t>
+  </si>
+  <si>
+    <t>24x418g</t>
+  </si>
+  <si>
+    <t>418g</t>
+  </si>
+  <si>
+    <t>ORANGE SEGMENTS IN SYRUP CANNED</t>
+  </si>
+  <si>
+    <t>6x2kg</t>
   </si>
 </sst>
 </file>
@@ -320,15 +332,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,12 +354,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,7 +384,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,19 +706,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40833799-D3B5-4BA2-B6C3-A57A0176C0EC}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="6" customWidth="1"/>
     <col min="7" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" customWidth="1"/>
@@ -722,8 +762,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
+      <c r="A2" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -731,7 +771,7 @@
         <v>5017482100048</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -760,7 +800,7 @@
         <v>5060016821537</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -778,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -789,7 +829,7 @@
         <v>5060016820172</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -801,10 +841,10 @@
         <v>1.79</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -812,7 +852,7 @@
         <v>5010893525189</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -824,13 +864,13 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -838,7 +878,7 @@
         <v>5017482100550</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -864,7 +904,7 @@
         <v>5000117078812</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -876,7 +916,7 @@
         <v>4.29</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -893,7 +933,7 @@
         <v>5000232901385</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -905,16 +945,16 @@
         <v>6.69</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -951,7 +991,7 @@
         <v>5027974509174</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -980,7 +1020,7 @@
         <v>5027974508177</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1009,7 +1049,7 @@
         <v>5029788600122</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1021,16 +1061,16 @@
         <v>1.49</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1038,7 +1078,7 @@
         <v>3017800061848</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1050,376 +1090,388 @@
         <v>0.99</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5017482102028</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>32.19</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5.39</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>5017482101335</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3.39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
+      <c r="A17" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>5000117084806</v>
+        <v>5017482101335</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="6">
-        <v>14.99</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="F18" s="6">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
+        <v>3.39</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>5000157014009</v>
+        <v>5000117084806</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="6">
-        <v>26.49</v>
+        <v>14.99</v>
       </c>
       <c r="F19" s="6">
-        <v>4.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>5017482102097</v>
+        <v>5000157014009</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="6">
-        <v>17.59</v>
+        <v>26.49</v>
       </c>
       <c r="F20" s="6">
-        <v>2.99</v>
+        <v>4.49</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>5000157055163</v>
+        <v>5017482102097</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="6">
-        <v>45.99</v>
+        <v>17.59</v>
       </c>
       <c r="F21" s="6">
-        <v>0.99</v>
+        <v>2.99</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>5000157041487</v>
+        <v>5000157055163</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="6">
-        <v>25.29</v>
+        <v>45.99</v>
       </c>
       <c r="F22" s="6">
-        <v>1.0900000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
+        <v>5000157041487</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>25.29</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>5017482101489</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
         <v>8.2899999999999991</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>0.79</v>
       </c>
-      <c r="G23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>5017482100710</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>36.49</v>
-      </c>
-      <c r="F26" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>29</v>
+      <c r="A26" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>5027974003177</v>
+        <v>5027974127101</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="6">
-        <v>35.69</v>
+        <v>17.29</v>
       </c>
       <c r="F27" s="6">
-        <v>5.99</v>
+        <v>1.49</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>5000154012688</v>
+        <v>5000232152923</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="6">
-        <v>26.49</v>
+        <v>64.39</v>
       </c>
       <c r="F28" s="6">
-        <v>2.29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
+        <v>10.79</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>5027974127101</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>17.29</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>5000232152923</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>64.39</v>
-      </c>
-      <c r="F32" s="6">
-        <v>10.79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>8414753310064</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>63.09</v>
+      </c>
+      <c r="F29" s="10">
+        <v>5.29</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>5060016800068</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>114.99</v>
+      </c>
+      <c r="F30" s="10">
+        <v>4.79</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>5017482101083</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>83.99</v>
+      </c>
+      <c r="F31" s="10">
+        <v>3.49</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
